--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="562">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,9 +428,6 @@
     <t>Task.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -455,42 +452,26 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Task.extension:referenceProjetPerso</t>
-  </si>
-  <si>
-    <t>referenceProjetPerso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-reference}
+    <t>Task.extension:pieceJointeBilan</t>
+  </si>
+  <si>
+    <t>pieceJointeBilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
 </t>
   </si>
   <si>
-    <t>Lien vers le projet personnalisé</t>
-  </si>
-  <si>
-    <t>Liens vers le projet personnalisé, utilisables dans le profil TDDUIGoalObjectif.</t>
+    <t>Pièce jointe</t>
+  </si>
+  <si>
+    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Task.extension:pieceJointeBilan</t>
-  </si>
-  <si>
-    <t>pieceJointeBilan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
-</t>
-  </si>
-  <si>
-    <t>Pièce jointe</t>
-  </si>
-  <si>
-    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
-  </si>
-  <si>
     <t>Task.modifierExtension</t>
   </si>
   <si>
@@ -576,7 +557,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-perso)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
 </t>
   </si>
   <si>
@@ -1554,10 +1535,6 @@
     <t>Task.input:dateProchainBilan.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
     <t>Task.input:synthesePreparationBilan</t>
   </si>
   <si>
@@ -1795,7 +1772,7 @@
     <t>Task.output:syntheseBilan.value[x].author[x]:authorReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
 </t>
   </si>
   <si>
@@ -2113,7 +2090,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO111"/>
+  <dimension ref="A1:AO110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3117,7 +3094,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>80</v>
@@ -3132,13 +3109,13 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3177,17 +3154,17 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -3199,7 +3176,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3219,23 +3196,23 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -3247,13 +3224,13 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3304,7 +3281,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3313,13 +3290,13 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3336,44 +3313,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3421,7 +3400,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3430,19 +3409,19 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3453,46 +3432,42 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3540,7 +3515,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3552,19 +3527,19 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3572,10 +3547,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3583,7 +3558,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>89</v>
@@ -3595,19 +3570,21 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3655,13 +3632,13 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
@@ -3670,16 +3647,16 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -3687,10 +3664,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3713,17 +3690,17 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3772,7 +3749,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3790,10 +3767,10 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3804,10 +3781,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3815,7 +3792,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>89</v>
@@ -3830,18 +3807,16 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3889,13 +3864,13 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3904,13 +3879,13 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3921,10 +3896,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3932,7 +3907,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3947,7 +3922,7 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>181</v>
@@ -3956,7 +3931,9 @@
         <v>182</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -4004,13 +3981,13 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
@@ -4019,7 +3996,7 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>184</v>
@@ -4050,7 +4027,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -4062,17 +4039,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -4127,7 +4106,7 @@
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
@@ -4139,10 +4118,10 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4153,10 +4132,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4164,32 +4143,30 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>196</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>197</v>
       </c>
@@ -4216,13 +4193,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -4240,13 +4217,13 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
@@ -4258,13 +4235,13 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -4272,10 +4249,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4283,7 +4260,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -4292,24 +4269,24 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4333,13 +4310,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -4357,10 +4334,10 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>89</v>
@@ -4375,13 +4352,13 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4389,10 +4366,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4415,18 +4392,18 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4450,7 +4427,7 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s" s="2">
         <v>215</v>
@@ -4474,7 +4451,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4517,7 +4494,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -4532,7 +4509,7 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>218</v>
@@ -4540,10 +4517,10 @@
       <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>220</v>
       </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4567,13 +4544,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s" s="2">
         <v>221</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4594,7 +4571,7 @@
         <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4609,13 +4586,13 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4623,10 +4600,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4634,7 +4611,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4646,72 +4623,74 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>89</v>
@@ -4726,13 +4705,13 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4740,10 +4719,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4763,71 +4742,69 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q23" t="s" s="2">
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4842,16 +4819,16 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4859,10 +4836,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4885,17 +4862,15 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4920,31 +4895,31 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4959,16 +4934,16 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4976,10 +4951,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5002,16 +4977,20 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -5059,7 +5038,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5080,10 +5059,10 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5091,14 +5070,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5117,17 +5096,15 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>261</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>262</v>
       </c>
@@ -5178,7 +5155,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5196,13 +5173,13 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5210,14 +5187,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5236,17 +5213,17 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5295,7 +5272,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5313,13 +5290,13 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5327,10 +5304,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5353,18 +5330,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5412,7 +5387,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5430,13 +5405,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5444,10 +5419,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5467,10 +5442,10 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>282</v>
@@ -5527,7 +5502,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5539,19 +5514,19 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5559,21 +5534,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5585,15 +5560,17 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5630,16 +5607,16 @@
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>290</v>
@@ -5648,13 +5625,13 @@
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -5663,7 +5640,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5674,21 +5651,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5697,10 +5674,10 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>293</v>
@@ -5709,7 +5686,7 @@
         <v>294</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5747,16 +5724,16 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>296</v>
@@ -5765,36 +5742,36 @@
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5802,7 +5779,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>89</v>
@@ -5817,22 +5794,24 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="R32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5876,7 +5855,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5885,37 +5864,37 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5931,72 +5910,70 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6004,7 +5981,7 @@
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
@@ -6013,28 +5990,28 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6050,20 +6027,20 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6112,7 +6089,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6121,7 +6098,7 @@
         <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>101</v>
@@ -6130,13 +6107,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6151,7 +6128,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6170,7 +6147,7 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>326</v>
@@ -6238,7 +6215,7 @@
         <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>101</v>
@@ -6247,13 +6224,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6261,10 +6238,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6275,7 +6252,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6284,20 +6261,20 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6322,13 +6299,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6346,13 +6323,13 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -6364,13 +6341,13 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6378,21 +6355,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6401,20 +6378,22 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6439,13 +6418,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6463,13 +6442,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6481,13 +6460,13 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6495,14 +6474,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6521,19 +6500,17 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6582,7 +6559,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6600,13 +6577,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6614,10 +6591,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6637,21 +6614,21 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
         <v>360</v>
       </c>
+      <c r="N39" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6675,10 +6652,10 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6699,7 +6676,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6717,24 +6694,24 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6757,16 +6734,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6792,10 +6769,10 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>78</v>
@@ -6816,7 +6793,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6834,24 +6811,24 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6862,7 +6839,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6874,17 +6851,15 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>258</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N41" t="s" s="2">
         <v>375</v>
       </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6933,13 +6908,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6957,18 +6932,18 @@
         <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6991,13 +6966,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7048,7 +7023,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7066,16 +7041,16 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -7087,7 +7062,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7106,15 +7081,17 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7181,10 +7158,10 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7195,21 +7172,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7221,18 +7198,18 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N44" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="O44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7280,13 +7257,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -7298,7 +7275,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>398</v>
@@ -7338,18 +7315,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>402</v>
+        <v>283</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7397,7 +7372,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7409,7 +7384,7 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7418,7 +7393,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>285</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7429,21 +7404,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7455,15 +7430,17 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7518,13 +7495,13 @@
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7533,7 +7510,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7544,14 +7521,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7564,24 +7541,26 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7629,7 +7608,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7641,7 +7620,7 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7650,7 +7629,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7661,45 +7640,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7748,28 +7725,28 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7806,15 +7783,17 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>416</v>
       </c>
@@ -7911,7 +7890,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7923,20 +7902,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>281</v>
+        <v>419</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N50" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="O50" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7990,7 +7965,7 @@
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -8005,7 +7980,7 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -8016,14 +7991,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8042,16 +8017,18 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8087,19 +8064,17 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8120,7 +8095,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8131,21 +8106,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8157,18 +8132,16 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>431</v>
+        <v>282</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8204,29 +8177,31 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>429</v>
+        <v>284</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8235,7 +8210,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8246,21 +8221,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8272,15 +8247,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8335,13 +8312,13 @@
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8350,7 +8327,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8361,14 +8338,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8381,24 +8358,26 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8446,7 +8425,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8458,7 +8437,7 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8467,7 +8446,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8478,45 +8457,45 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8541,10 +8520,10 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>78</v>
@@ -8565,19 +8544,19 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -8586,7 +8565,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8597,14 +8576,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8623,20 +8602,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>210</v>
+        <v>441</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N56" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8660,10 +8635,10 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>78</v>
@@ -8684,7 +8659,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>89</v>
@@ -8705,7 +8680,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8716,18 +8691,20 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8742,16 +8719,18 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8799,13 +8778,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8814,13 +8793,13 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8831,16 +8810,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8859,18 +8836,16 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>452</v>
+        <v>282</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8918,28 +8893,28 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>429</v>
+        <v>284</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8950,21 +8925,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8976,15 +8951,17 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9039,13 +9016,13 @@
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -9054,7 +9031,7 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9065,14 +9042,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9085,24 +9062,26 @@
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9150,7 +9129,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9162,7 +9141,7 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9171,7 +9150,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9182,45 +9161,45 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9230,7 +9209,7 @@
         <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>78</v>
@@ -9245,10 +9224,10 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -9269,19 +9248,19 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9290,7 +9269,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9301,14 +9280,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9327,20 +9306,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N62" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="O62" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9349,7 +9324,7 @@
         <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>78</v>
@@ -9364,10 +9339,10 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9388,7 +9363,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>89</v>
@@ -9409,7 +9384,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9420,18 +9395,20 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9446,16 +9423,18 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>253</v>
+        <v>394</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9503,13 +9482,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9518,13 +9497,13 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>78</v>
+        <v>457</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9535,16 +9514,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9563,18 +9540,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>462</v>
+        <v>282</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9622,28 +9597,28 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>429</v>
+        <v>284</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9654,21 +9629,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9680,15 +9655,17 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9743,13 +9720,13 @@
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9758,7 +9735,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9769,14 +9746,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9789,24 +9766,26 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9854,7 +9833,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9866,7 +9845,7 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9875,7 +9854,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9886,45 +9865,45 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9934,7 +9913,7 @@
         <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>78</v>
@@ -9949,10 +9928,10 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
@@ -9973,19 +9952,19 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9994,7 +9973,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -10005,14 +9984,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10031,20 +10010,16 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N68" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="O68" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -10053,7 +10028,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -10068,10 +10043,10 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
@@ -10092,7 +10067,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>89</v>
@@ -10113,7 +10088,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10124,21 +10099,23 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -10150,16 +10127,18 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>253</v>
+        <v>394</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10207,13 +10186,13 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
@@ -10222,13 +10201,13 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10239,23 +10218,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10267,18 +10244,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>472</v>
+        <v>282</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10326,28 +10301,28 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>429</v>
+        <v>284</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10358,21 +10333,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10384,15 +10359,17 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10447,13 +10424,13 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10462,7 +10439,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10473,14 +10450,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10493,24 +10470,26 @@
         <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10558,7 +10537,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10570,7 +10549,7 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10579,7 +10558,7 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10590,45 +10569,45 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10638,7 +10617,7 @@
         <v>78</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>78</v>
@@ -10653,10 +10632,10 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -10677,19 +10656,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10698,7 +10677,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10709,14 +10688,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10735,20 +10714,16 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N74" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="O74" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10757,7 +10732,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10772,10 +10747,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10796,7 +10771,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>89</v>
@@ -10817,7 +10792,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10828,18 +10803,20 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -10854,16 +10831,18 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>253</v>
+        <v>394</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10911,13 +10890,13 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
@@ -10926,13 +10905,13 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10943,16 +10922,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10971,18 +10948,16 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>482</v>
+        <v>282</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -11030,28 +11005,28 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>429</v>
+        <v>284</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11062,21 +11037,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -11088,15 +11063,17 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11151,13 +11128,13 @@
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11166,7 +11143,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11177,14 +11154,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11197,24 +11174,26 @@
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11262,7 +11241,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11274,7 +11253,7 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11283,7 +11262,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11294,45 +11273,45 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11342,7 +11321,7 @@
         <v>78</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>78</v>
@@ -11357,10 +11336,10 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>78</v>
@@ -11381,19 +11360,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11402,7 +11381,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11413,14 +11392,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11439,20 +11418,16 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N80" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="O80" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11461,7 +11436,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11476,10 +11451,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11500,7 +11475,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11521,7 +11496,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11532,21 +11507,23 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="D81" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11558,16 +11535,18 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>489</v>
+        <v>394</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11615,13 +11594,13 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -11630,13 +11609,13 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11647,23 +11626,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11675,18 +11652,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>492</v>
+        <v>282</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11734,28 +11709,28 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>429</v>
+        <v>284</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11766,21 +11741,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11792,15 +11767,17 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11855,13 +11832,13 @@
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11870,7 +11847,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11881,14 +11858,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11901,24 +11878,26 @@
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11966,7 +11945,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11978,7 +11957,7 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -11987,7 +11966,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11998,45 +11977,45 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -12046,7 +12025,7 @@
         <v>78</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>78</v>
@@ -12061,10 +12040,10 @@
         <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>78</v>
@@ -12085,19 +12064,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12106,7 +12085,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12117,14 +12096,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12143,20 +12122,16 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N86" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="O86" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12165,7 +12140,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12180,10 +12155,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12204,7 +12179,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>89</v>
@@ -12225,7 +12200,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12236,10 +12211,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12247,7 +12222,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>89</v>
@@ -12262,13 +12237,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>386</v>
+        <v>247</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>448</v>
+        <v>282</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>449</v>
+        <v>283</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12319,10 +12294,10 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>446</v>
+        <v>284</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>89</v>
@@ -12331,7 +12306,7 @@
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12340,7 +12315,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12351,21 +12326,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -12377,15 +12352,17 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12422,16 +12399,16 @@
         <v>78</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>290</v>
@@ -12440,13 +12417,13 @@
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -12455,7 +12432,7 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12466,21 +12443,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12489,19 +12466,19 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>498</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>293</v>
+        <v>499</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>294</v>
+        <v>500</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>157</v>
+        <v>501</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12539,31 +12516,29 @@
         <v>78</v>
       </c>
       <c r="AB89" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AC89" s="2"/>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AC89" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="AF89" t="s" s="2">
-        <v>296</v>
+        <v>503</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12572,23 +12547,25 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>291</v>
+        <v>504</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12609,16 +12586,16 @@
         <v>90</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12656,17 +12633,19 @@
         <v>78</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AC90" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12681,13 +12660,13 @@
         <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>78</v>
+        <v>508</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12698,14 +12677,12 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12726,17 +12703,15 @@
         <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>514</v>
+        <v>292</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12785,7 +12760,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12800,13 +12775,13 @@
         <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12817,10 +12792,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12828,7 +12803,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>89</v>
@@ -12843,7 +12818,7 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>298</v>
+        <v>517</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>518</v>
@@ -12903,7 +12878,7 @@
         <v>520</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>89</v>
@@ -12915,13 +12890,13 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>78</v>
+        <v>521</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12932,7 +12907,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>523</v>
@@ -12943,10 +12918,10 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>78</v>
@@ -12955,19 +12930,21 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
@@ -13003,25 +12980,23 @@
         <v>78</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="AC93" s="2"/>
       <c r="AD93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
@@ -13030,27 +13005,27 @@
         <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>528</v>
+        <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>529</v>
+        <v>429</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13061,7 +13036,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -13073,18 +13048,16 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>531</v>
+        <v>282</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>532</v>
+        <v>283</v>
       </c>
       <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
@@ -13120,29 +13093,31 @@
         <v>78</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AC94" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>530</v>
+        <v>284</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13151,7 +13126,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13162,21 +13137,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>78</v>
@@ -13188,15 +13163,17 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13251,13 +13228,13 @@
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13266,7 +13243,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13277,14 +13254,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13297,24 +13274,26 @@
         <v>78</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13362,7 +13341,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13374,7 +13353,7 @@
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13383,7 +13362,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13394,45 +13373,43 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>158</v>
+        <v>533</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -13457,10 +13434,10 @@
         <v>78</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>78</v>
@@ -13481,19 +13458,19 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>411</v>
+        <v>530</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -13502,7 +13479,7 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13513,14 +13490,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13539,17 +13516,17 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>210</v>
+        <v>441</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13574,10 +13551,10 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>541</v>
+        <v>78</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
@@ -13598,7 +13575,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>89</v>
@@ -13619,7 +13596,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13630,18 +13607,20 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="D99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>89</v>
@@ -13656,17 +13635,17 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13715,13 +13694,13 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
@@ -13730,13 +13709,13 @@
         <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>78</v>
+        <v>540</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13747,14 +13726,12 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>78</v>
       </c>
@@ -13775,18 +13752,16 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>548</v>
+        <v>282</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>532</v>
+        <v>283</v>
       </c>
       <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
       </c>
@@ -13834,28 +13809,28 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>530</v>
+        <v>284</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>547</v>
+        <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -13866,21 +13841,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -13892,15 +13867,17 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M101" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
@@ -13955,13 +13932,13 @@
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -13970,7 +13947,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -13981,14 +13958,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14001,24 +13978,26 @@
         <v>78</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
@@ -14066,7 +14045,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14078,7 +14057,7 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14087,7 +14066,7 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14098,45 +14077,43 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>158</v>
+        <v>533</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14146,7 +14123,7 @@
         <v>78</v>
       </c>
       <c r="S103" t="s" s="2">
-        <v>78</v>
+        <v>546</v>
       </c>
       <c r="T103" t="s" s="2">
         <v>78</v>
@@ -14161,10 +14138,10 @@
         <v>78</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>78</v>
@@ -14185,19 +14162,19 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>411</v>
+        <v>530</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14206,7 +14183,7 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>132</v>
+        <v>429</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14217,14 +14194,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14243,17 +14220,17 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -14263,7 +14240,7 @@
         <v>78</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>553</v>
+        <v>78</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>78</v>
@@ -14278,10 +14255,10 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>541</v>
+        <v>78</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>78</v>
@@ -14302,7 +14279,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>89</v>
@@ -14323,7 +14300,7 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14334,10 +14311,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14345,7 +14322,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>89</v>
@@ -14360,18 +14337,16 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>386</v>
+        <v>247</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>543</v>
+        <v>282</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>544</v>
+        <v>283</v>
       </c>
       <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>545</v>
-      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14419,10 +14394,10 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>542</v>
+        <v>284</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>89</v>
@@ -14431,7 +14406,7 @@
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -14440,7 +14415,7 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14451,21 +14426,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -14477,15 +14452,17 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M106" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14522,16 +14499,16 @@
         <v>78</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>290</v>
@@ -14540,13 +14517,13 @@
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>78</v>
@@ -14555,7 +14532,7 @@
         <v>78</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14566,21 +14543,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>78</v>
@@ -14589,19 +14566,19 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>135</v>
+        <v>554</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>293</v>
+        <v>499</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>294</v>
+        <v>500</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>157</v>
+        <v>501</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14639,31 +14616,29 @@
         <v>78</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="AC107" s="2"/>
       <c r="AD107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>139</v>
+        <v>555</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>296</v>
+        <v>503</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
@@ -14672,23 +14647,25 @@
         <v>78</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>291</v>
+        <v>504</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="D108" t="s" s="2">
         <v>78</v>
       </c>
@@ -14709,16 +14686,16 @@
         <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14756,17 +14733,19 @@
         <v>78</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AC108" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>562</v>
+        <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14787,7 +14766,7 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -14798,20 +14777,18 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>89</v>
@@ -14826,17 +14803,15 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>564</v>
+        <v>292</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>78</v>
@@ -14885,7 +14860,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14906,7 +14881,7 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -14917,10 +14892,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14928,7 +14903,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>89</v>
@@ -14943,7 +14918,7 @@
         <v>90</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>298</v>
+        <v>517</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>518</v>
@@ -15003,7 +14978,7 @@
         <v>520</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>89</v>
@@ -15021,127 +14996,12 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO111" t="s" s="2">
         <v>132</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="615">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -502,7 +502,7 @@
 </t>
   </si>
   <si>
-    <t>Task Instance Identifier</t>
+    <t>Identifiant du bilan</t>
   </si>
   <si>
     <t>The business identifier for this task.</t>
@@ -518,6 +518,205 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Task.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Task.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Task.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Task.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Task.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-bilan.esante.gouv.fr</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Task.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Task.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Task.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Task.instantiatesCanonical</t>
@@ -557,7 +756,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
 </t>
   </si>
   <si>
@@ -631,9 +830,6 @@
     <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
   </si>
   <si>
@@ -647,10 +843,6 @@
   </si>
   <si>
     <t>Task.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason for current status</t>
@@ -780,10 +972,6 @@
     <t>Task.description</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Human-readable explanation of task</t>
   </si>
   <si>
@@ -868,10 +1056,6 @@
     <t>Task.executionPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Start and end time of execution</t>
   </si>
   <si>
@@ -890,31 +1074,7 @@
     <t>Task.executionPeriod.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Task.executionPeriod.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Task.executionPeriod.start</t>
@@ -2090,7 +2250,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO110"/>
+  <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2118,7 +2278,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -3570,7 +3730,7 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>163</v>
@@ -3582,9 +3742,7 @@
         <v>165</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3632,7 +3790,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3644,16 +3802,16 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3664,21 +3822,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3687,21 +3845,21 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3737,40 +3895,40 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3792,7 +3950,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>89</v>
@@ -3801,22 +3959,26 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3840,13 +4002,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3864,13 +4026,13 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3879,27 +4041,27 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3922,17 +4084,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3957,13 +4121,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3981,7 +4145,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3999,24 +4163,24 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4024,10 +4188,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -4039,19 +4203,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -4061,10 +4225,10 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4100,13 +4264,13 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
@@ -4118,24 +4282,24 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4152,24 +4316,24 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4181,7 +4345,7 @@
         <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -4193,13 +4357,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -4217,10 +4381,10 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>89</v>
@@ -4235,24 +4399,24 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4275,17 +4439,15 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4310,10 +4472,10 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>78</v>
@@ -4334,7 +4496,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4355,21 +4517,21 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4392,18 +4554,18 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4427,10 +4589,10 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>78</v>
@@ -4451,7 +4613,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4472,21 +4634,21 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4494,7 +4656,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -4509,18 +4671,18 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4544,13 +4706,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4568,10 +4730,10 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4586,13 +4748,13 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4600,10 +4762,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4623,27 +4785,25 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q22" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4663,13 +4823,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4687,7 +4847,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4705,13 +4865,13 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AM22" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4719,10 +4879,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4730,7 +4890,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4745,17 +4905,15 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4780,13 +4938,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4804,13 +4962,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4828,7 +4986,7 @@
         <v>244</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4836,10 +4994,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4862,16 +5020,18 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4919,7 +5079,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4937,7 +5097,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>250</v>
@@ -4965,7 +5125,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -5044,7 +5204,7 @@
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -5056,13 +5216,13 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5070,18 +5230,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -5090,13 +5250,13 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>260</v>
@@ -5131,13 +5291,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5155,10 +5315,10 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>89</v>
@@ -5173,13 +5333,13 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5187,10 +5347,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5213,7 +5373,7 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>268</v>
@@ -5221,10 +5381,10 @@
       <c r="M27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>270</v>
       </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5248,10 +5408,10 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -5272,7 +5432,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5290,13 +5450,13 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5330,16 +5490,18 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5363,10 +5525,10 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
@@ -5405,13 +5567,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5419,10 +5581,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5430,7 +5592,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -5442,18 +5604,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5478,13 +5642,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5502,10 +5666,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -5514,19 +5678,19 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5534,21 +5698,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5560,22 +5724,24 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5595,55 +5761,55 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5651,10 +5817,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5662,7 +5828,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5677,16 +5843,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5712,13 +5878,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5736,7 +5902,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5745,33 +5911,33 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5794,24 +5960,20 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5855,7 +6017,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5864,7 +6026,7 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5876,25 +6038,25 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5910,20 +6072,22 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5972,7 +6136,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5981,7 +6145,7 @@
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
@@ -5990,13 +6154,13 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6004,14 +6168,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6030,17 +6194,17 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6089,7 +6253,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6098,7 +6262,7 @@
         <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>101</v>
@@ -6107,13 +6271,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6121,10 +6285,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6147,17 +6311,17 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6206,7 +6370,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6224,13 +6388,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6238,10 +6402,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6252,7 +6416,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6261,21 +6425,19 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6299,37 +6461,37 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -6341,13 +6503,13 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6355,14 +6517,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6378,23 +6540,19 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>164</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6442,7 +6600,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6454,19 +6612,19 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6474,21 +6632,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6497,21 +6655,21 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6547,43 +6705,43 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>172</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6591,10 +6749,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6602,7 +6760,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6614,19 +6772,19 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>204</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6652,10 +6810,10 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6676,7 +6834,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6685,33 +6843,33 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6731,25 +6889,27 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="R40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6793,7 +6953,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6802,7 +6962,7 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6811,35 +6971,35 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6851,16 +7011,18 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6908,16 +7070,16 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -6926,35 +7088,35 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6963,19 +7125,21 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -7023,16 +7187,16 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>101</v>
@@ -7041,10 +7205,10 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7055,21 +7219,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7078,21 +7242,21 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7140,13 +7304,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -7158,13 +7322,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7172,10 +7336,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7186,7 +7350,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7198,17 +7362,17 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7233,13 +7397,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7257,13 +7421,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -7275,13 +7439,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7289,14 +7453,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7312,19 +7476,23 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>247</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>282</v>
+        <v>397</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7372,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7384,19 +7552,19 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>285</v>
+        <v>402</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7404,21 +7572,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7427,21 +7595,21 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>287</v>
+        <v>405</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7489,31 +7657,31 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>285</v>
+        <v>409</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7521,46 +7689,44 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7584,10 +7750,10 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>78</v>
@@ -7608,42 +7774,42 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>417</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7666,18 +7832,18 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>407</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7725,7 +7891,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7743,13 +7909,13 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7757,10 +7923,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7771,7 +7937,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7783,20 +7949,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>275</v>
+        <v>426</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7844,13 +8006,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7862,24 +8024,24 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7902,13 +8064,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7959,7 +8121,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7977,10 +8139,10 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7991,14 +8153,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8017,18 +8179,18 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8064,17 +8226,19 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8092,10 +8256,10 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8106,10 +8270,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8132,16 +8296,18 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>247</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>282</v>
+        <v>448</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>283</v>
+        <v>449</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8189,7 +8355,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>284</v>
+        <v>446</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8201,7 +8367,7 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8210,7 +8376,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>285</v>
+        <v>451</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8221,21 +8387,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8247,17 +8413,15 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8306,19 +8470,19 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8327,7 +8491,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8338,14 +8502,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>402</v>
+        <v>148</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8358,26 +8522,24 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>169</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>170</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8425,7 +8587,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>172</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8446,7 +8608,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8457,45 +8619,45 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>437</v>
+        <v>151</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>438</v>
+        <v>152</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8520,10 +8682,10 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>78</v>
@@ -8544,19 +8706,19 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -8565,7 +8727,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8576,10 +8738,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8587,7 +8749,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8602,16 +8764,18 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8659,10 +8823,10 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>89</v>
@@ -8680,7 +8844,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8691,16 +8855,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8719,17 +8881,19 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>394</v>
+        <v>213</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8778,13 +8942,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8793,13 +8957,13 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8810,10 +8974,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8824,7 +8988,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8836,13 +9000,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>247</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>282</v>
+        <v>473</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>283</v>
+        <v>474</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8893,19 +9057,19 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>284</v>
+        <v>471</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8914,7 +9078,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>285</v>
+        <v>475</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8925,14 +9089,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>148</v>
+        <v>477</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8951,18 +9115,18 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>287</v>
+        <v>478</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8998,19 +9162,17 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>290</v>
+        <v>476</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9022,7 +9184,7 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -9031,7 +9193,7 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9042,46 +9204,42 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>164</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9129,19 +9287,19 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>166</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9150,7 +9308,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9161,21 +9319,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>434</v>
+        <v>148</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -9187,20 +9345,18 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>169</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>170</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9209,7 +9365,7 @@
         <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>78</v>
@@ -9224,10 +9380,10 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -9248,19 +9404,19 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>433</v>
+        <v>172</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9269,7 +9425,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9280,42 +9436,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9363,19 +9523,19 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9384,7 +9544,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9395,20 +9555,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9423,17 +9581,19 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9458,10 +9618,10 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>78</v>
@@ -9482,13 +9642,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9497,13 +9657,13 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9514,10 +9674,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9525,7 +9685,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9540,13 +9700,13 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>247</v>
+        <v>494</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>282</v>
+        <v>495</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9597,10 +9757,10 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>284</v>
+        <v>493</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>89</v>
@@ -9609,7 +9769,7 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -9618,7 +9778,7 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9629,21 +9789,23 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="D65" t="s" s="2">
-        <v>148</v>
+        <v>477</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9655,18 +9817,18 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>287</v>
+        <v>499</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9714,7 +9876,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>290</v>
+        <v>476</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9726,16 +9888,16 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>78</v>
+        <v>500</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9746,46 +9908,42 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>403</v>
+        <v>164</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9833,19 +9991,19 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>405</v>
+        <v>166</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9854,7 +10012,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9865,21 +10023,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>434</v>
+        <v>148</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9891,20 +10049,18 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>435</v>
+        <v>169</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>436</v>
+        <v>170</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9913,7 +10069,7 @@
         <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>78</v>
@@ -9928,10 +10084,10 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
@@ -9952,19 +10108,19 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>433</v>
+        <v>172</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9973,7 +10129,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9984,42 +10140,46 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -10067,19 +10227,19 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10088,7 +10248,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10099,23 +10259,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -10127,17 +10285,19 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10147,7 +10307,7 @@
         <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>78</v>
+        <v>505</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>78</v>
@@ -10162,10 +10322,10 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>78</v>
@@ -10186,13 +10346,13 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
@@ -10201,13 +10361,13 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10218,10 +10378,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10229,7 +10389,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
@@ -10244,13 +10404,13 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>282</v>
+        <v>495</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10301,10 +10461,10 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>284</v>
+        <v>493</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>89</v>
@@ -10313,7 +10473,7 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -10322,7 +10482,7 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10333,21 +10493,23 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D71" t="s" s="2">
-        <v>148</v>
+        <v>477</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10359,18 +10521,18 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>287</v>
+        <v>509</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10418,7 +10580,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>290</v>
+        <v>476</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10430,16 +10592,16 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>78</v>
+        <v>510</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10450,46 +10612,42 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>403</v>
+        <v>164</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10537,19 +10695,19 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>405</v>
+        <v>166</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10558,7 +10716,7 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10569,21 +10727,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>434</v>
+        <v>148</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10595,20 +10753,18 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>435</v>
+        <v>169</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>436</v>
+        <v>170</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10617,7 +10773,7 @@
         <v>78</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>78</v>
@@ -10632,10 +10788,10 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -10656,19 +10812,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>433</v>
+        <v>172</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10677,7 +10833,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10688,42 +10844,46 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10771,19 +10931,19 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10792,7 +10952,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10803,20 +10963,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -10831,17 +10989,19 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10851,7 +11011,7 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>78</v>
@@ -10866,10 +11026,10 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -10890,13 +11050,13 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
@@ -10905,13 +11065,13 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10922,10 +11082,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10933,7 +11093,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>89</v>
@@ -10948,13 +11108,13 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>282</v>
+        <v>495</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11005,10 +11165,10 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>284</v>
+        <v>493</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>89</v>
@@ -11017,7 +11177,7 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11026,7 +11186,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11037,14 +11197,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="D77" t="s" s="2">
-        <v>148</v>
+        <v>477</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11063,18 +11225,18 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>287</v>
+        <v>519</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11122,7 +11284,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>290</v>
+        <v>476</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11134,16 +11296,16 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>78</v>
+        <v>520</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11154,46 +11316,42 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>403</v>
+        <v>164</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11241,19 +11399,19 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>405</v>
+        <v>166</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11262,7 +11420,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11273,21 +11431,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>434</v>
+        <v>148</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -11299,20 +11457,18 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>435</v>
+        <v>169</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>436</v>
+        <v>170</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11321,7 +11477,7 @@
         <v>78</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>78</v>
@@ -11336,10 +11492,10 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>78</v>
@@ -11360,19 +11516,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>433</v>
+        <v>172</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11381,7 +11537,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11392,42 +11548,46 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11475,19 +11635,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11496,7 +11656,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11507,23 +11667,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11535,17 +11693,19 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O81" t="s" s="2">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11555,7 +11715,7 @@
         <v>78</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>78</v>
@@ -11570,10 +11730,10 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>78</v>
@@ -11594,13 +11754,13 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -11609,13 +11769,13 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11626,10 +11786,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11637,7 +11797,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>89</v>
@@ -11652,13 +11812,13 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>282</v>
+        <v>495</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11709,10 +11869,10 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>284</v>
+        <v>493</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>89</v>
@@ -11721,7 +11881,7 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11730,7 +11890,7 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11741,21 +11901,23 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="D83" t="s" s="2">
-        <v>148</v>
+        <v>477</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11767,18 +11929,18 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>287</v>
+        <v>529</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11826,7 +11988,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>290</v>
+        <v>476</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11838,16 +12000,16 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11858,46 +12020,42 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>488</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>403</v>
+        <v>164</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11945,19 +12103,19 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>405</v>
+        <v>166</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -11966,7 +12124,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11977,21 +12135,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>434</v>
+        <v>148</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -12003,20 +12161,18 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>435</v>
+        <v>169</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>436</v>
+        <v>170</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -12025,7 +12181,7 @@
         <v>78</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>78</v>
@@ -12040,10 +12196,10 @@
         <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>78</v>
@@ -12064,19 +12220,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>433</v>
+        <v>172</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12085,7 +12241,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12096,42 +12252,46 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12179,19 +12339,19 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12200,7 +12360,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12211,18 +12371,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>78</v>
+        <v>487</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>89</v>
@@ -12237,16 +12397,20 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>282</v>
+        <v>488</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12255,7 +12419,7 @@
         <v>78</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>78</v>
@@ -12270,10 +12434,10 @@
         <v>78</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>78</v>
@@ -12294,10 +12458,10 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>284</v>
+        <v>486</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>89</v>
@@ -12306,7 +12470,7 @@
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12315,7 +12479,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12326,21 +12490,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -12352,17 +12516,15 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>287</v>
+        <v>495</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12399,31 +12561,31 @@
         <v>78</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>290</v>
+        <v>493</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -12432,7 +12594,7 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12443,21 +12605,23 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="D89" t="s" s="2">
-        <v>78</v>
+        <v>477</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12466,21 +12630,21 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12516,23 +12680,25 @@
         <v>78</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AC89" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
@@ -12541,31 +12707,29 @@
         <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>78</v>
+        <v>537</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12583,20 +12747,18 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>507</v>
+        <v>163</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>499</v>
+        <v>164</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -12645,7 +12807,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>503</v>
+        <v>166</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12657,41 +12819,41 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>508</v>
+        <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>504</v>
+        <v>167</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12700,18 +12862,20 @@
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>511</v>
+        <v>169</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12760,19 +12924,19 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>513</v>
+        <v>172</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12781,53 +12945,57 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>514</v>
+        <v>167</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>517</v>
+        <v>134</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12875,53 +13043,53 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>521</v>
+        <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>522</v>
+        <v>132</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>78</v>
+        <v>487</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>78</v>
@@ -12933,17 +13101,19 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -12953,7 +13123,7 @@
         <v>78</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>78</v>
+        <v>543</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>78</v>
@@ -12968,10 +13138,10 @@
         <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>78</v>
@@ -12980,23 +13150,25 @@
         <v>78</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AC93" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
@@ -13011,7 +13183,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13022,10 +13194,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13033,7 +13205,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>89</v>
@@ -13048,13 +13220,13 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>247</v>
+        <v>433</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>282</v>
+        <v>495</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13105,10 +13277,10 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>284</v>
+        <v>493</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>89</v>
@@ -13117,7 +13289,7 @@
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13126,7 +13298,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13137,21 +13309,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>78</v>
@@ -13163,17 +13335,15 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13222,19 +13392,19 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13243,7 +13413,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13254,14 +13424,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>402</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13274,26 +13444,24 @@
         <v>78</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>403</v>
+        <v>169</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>404</v>
+        <v>170</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="O96" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13329,19 +13497,19 @@
         <v>78</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>405</v>
+        <v>172</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13362,7 +13530,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13373,18 +13541,18 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>89</v>
@@ -13396,21 +13564,21 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>204</v>
+        <v>551</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13434,10 +13602,10 @@
         <v>78</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>534</v>
+        <v>78</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>78</v>
@@ -13446,22 +13614,20 @@
         <v>78</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="AC97" s="2"/>
       <c r="AD97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>89</v>
@@ -13479,29 +13645,31 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>429</v>
+        <v>557</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="D98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>89</v>
@@ -13513,21 +13681,21 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>441</v>
+        <v>560</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13575,10 +13743,10 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>89</v>
@@ -13590,31 +13758,29 @@
         <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>78</v>
+        <v>561</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>429</v>
+        <v>557</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13632,21 +13798,19 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>526</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13694,13 +13858,13 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
@@ -13709,27 +13873,27 @@
         <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>540</v>
+        <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>429</v>
+        <v>567</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13737,7 +13901,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>89</v>
@@ -13749,16 +13913,16 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>247</v>
+        <v>570</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>282</v>
+        <v>571</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>283</v>
+        <v>572</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13809,10 +13973,10 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>284</v>
+        <v>573</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>89</v>
@@ -13821,34 +13985,34 @@
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>78</v>
+        <v>574</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>285</v>
+        <v>575</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13867,18 +14031,18 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>287</v>
+        <v>577</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>78</v>
       </c>
@@ -13914,19 +14078,17 @@
         <v>78</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="AC101" s="2"/>
       <c r="AD101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>290</v>
+        <v>576</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -13938,7 +14100,7 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -13947,7 +14109,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -13958,46 +14120,42 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>403</v>
+        <v>164</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
@@ -14045,19 +14203,19 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>405</v>
+        <v>166</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14066,7 +14224,7 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14077,21 +14235,21 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>530</v>
+        <v>581</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>434</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -14103,18 +14261,18 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>531</v>
+        <v>169</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>78</v>
       </c>
@@ -14123,7 +14281,7 @@
         <v>78</v>
       </c>
       <c r="S103" t="s" s="2">
-        <v>546</v>
+        <v>78</v>
       </c>
       <c r="T103" t="s" s="2">
         <v>78</v>
@@ -14138,10 +14296,10 @@
         <v>78</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>534</v>
+        <v>78</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>78</v>
@@ -14162,19 +14320,19 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>530</v>
+        <v>172</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14183,7 +14341,7 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14194,43 +14352,45 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O104" t="s" s="2">
-        <v>538</v>
+        <v>152</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -14279,19 +14439,19 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>535</v>
+        <v>458</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
@@ -14300,7 +14460,7 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14311,18 +14471,18 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>78</v>
+        <v>487</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>89</v>
@@ -14337,16 +14497,18 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>282</v>
+        <v>584</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>283</v>
+        <v>585</v>
       </c>
       <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14370,10 +14532,10 @@
         <v>78</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>78</v>
+        <v>587</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>78</v>
@@ -14394,10 +14556,10 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>284</v>
+        <v>583</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>89</v>
@@ -14406,7 +14568,7 @@
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -14415,7 +14577,7 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14426,21 +14588,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -14452,18 +14614,18 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>134</v>
+        <v>494</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>287</v>
+        <v>589</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
       </c>
@@ -14499,31 +14661,31 @@
         <v>78</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>290</v>
+        <v>588</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>78</v>
@@ -14532,7 +14694,7 @@
         <v>78</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14543,18 +14705,20 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>89</v>
@@ -14566,21 +14730,21 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>554</v>
+        <v>447</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>499</v>
+        <v>594</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>78</v>
       </c>
@@ -14616,23 +14780,25 @@
         <v>78</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AC107" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>555</v>
+        <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
@@ -14641,37 +14807,35 @@
         <v>101</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>78</v>
+        <v>593</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>89</v>
@@ -14683,20 +14847,18 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>557</v>
+        <v>163</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>499</v>
+        <v>164</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -14745,7 +14907,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>503</v>
+        <v>166</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14757,7 +14919,7 @@
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -14766,32 +14928,32 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>504</v>
+        <v>167</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>558</v>
+        <v>596</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>78</v>
@@ -14800,18 +14962,20 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>511</v>
+        <v>169</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>78</v>
@@ -14860,19 +15024,19 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>513</v>
+        <v>172</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>78</v>
@@ -14881,53 +15045,57 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>514</v>
+        <v>167</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>517</v>
+        <v>134</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
       </c>
@@ -14975,33 +15143,963 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO110" t="s" s="2">
+      <c r="AK111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AC115" s="2"/>
+      <c r="AD115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO118" t="s" s="2">
         <v>132</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,127 +428,104 @@
     <t>Task.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Task.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiant du bilan</t>
+  </si>
+  <si>
+    <t>The business identifier for this task.</t>
+  </si>
+  <si>
+    <t>idBilan</t>
+  </si>
+  <si>
+    <t>Request.identifier, Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Task.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Task.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Task.extension:pieceJointeBilan</t>
-  </si>
-  <si>
-    <t>pieceJointeBilan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
-</t>
-  </si>
-  <si>
-    <t>Pièce jointe</t>
-  </si>
-  <si>
-    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Task.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiant du bilan</t>
-  </si>
-  <si>
-    <t>The business identifier for this task.</t>
-  </si>
-  <si>
-    <t>identifiantBilan</t>
-  </si>
-  <si>
-    <t>Request.identifier, Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Task.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Task.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -951,10 +928,7 @@
     <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
   </si>
   <si>
-    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-code|4.0.1</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j366-statut-bilan-projet-personnalise-ms</t>
   </si>
   <si>
     <t>categorieBilan</t>
@@ -1663,6 +1637,45 @@
     <t>Task.input:invite.value[x]</t>
   </si>
   <si>
+    <t>Task.input:pieceJointe</t>
+  </si>
+  <si>
+    <t>pieceJointe</t>
+  </si>
+  <si>
+    <t>Pièce jointe du bilan</t>
+  </si>
+  <si>
+    <t>pieceJointeBilan</t>
+  </si>
+  <si>
+    <t>Task.input:pieceJointe.id</t>
+  </si>
+  <si>
+    <t>Task.input:pieceJointe.extension</t>
+  </si>
+  <si>
+    <t>Task.input:pieceJointe.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.input:pieceJointe.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-bilan-codesystem"/&gt;
+    &lt;code value="pieceJointe"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Task.input:pieceJointe.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
+</t>
+  </si>
+  <si>
     <t>Task.input:dateProchainBilan</t>
   </si>
   <si>
@@ -1745,8 +1758,8 @@
     <t>Task.input.value[x].author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
-string</t>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Individual responsible for the annotation</t>
@@ -1762,6 +1775,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Annotation.author[x]</t>
   </si>
   <si>
@@ -1774,7 +1790,7 @@
     <t>authorReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
 </t>
   </si>
   <si>
@@ -1902,50 +1918,6 @@
   </si>
   <si>
     <t>Task.output:syntheseBilan.value[x]</t>
-  </si>
-  <si>
-    <t>Task.output:syntheseBilan.value[x].id</t>
-  </si>
-  <si>
-    <t>Task.output.value[x].id</t>
-  </si>
-  <si>
-    <t>Task.output:syntheseBilan.value[x].extension</t>
-  </si>
-  <si>
-    <t>Task.output.value[x].extension</t>
-  </si>
-  <si>
-    <t>Task.output:syntheseBilan.value[x].author[x]</t>
-  </si>
-  <si>
-    <t>Task.output.value[x].author[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Task.output:syntheseBilan.value[x].author[x]:authorReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
-</t>
-  </si>
-  <si>
-    <t>Task.output:syntheseBilan.value[x].time</t>
-  </si>
-  <si>
-    <t>Task.output.value[x].time</t>
-  </si>
-  <si>
-    <t>Task.output:syntheseBilan.value[x].text</t>
-  </si>
-  <si>
-    <t>Task.output.value[x].text</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO118"/>
+  <dimension ref="A1:AO117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2284,7 +2256,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="39.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.29296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3250,7 +3222,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3269,15 +3241,17 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -3314,14 +3288,16 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -3345,7 +3321,7 @@
         <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -3359,13 +3335,11 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3378,22 +3352,26 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3441,7 +3419,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3450,19 +3428,19 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>78</v>
@@ -3473,46 +3451,42 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3560,7 +3534,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3572,19 +3546,19 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3603,7 +3577,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>89</v>
@@ -3675,31 +3649,31 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM12" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3707,21 +3681,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3733,15 +3707,17 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3778,31 +3754,31 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3811,7 +3787,7 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3822,44 +3798,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3883,43 +3861,43 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3928,21 +3906,21 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3959,25 +3937,25 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -4002,13 +3980,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -4026,7 +4004,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -4047,21 +4025,21 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4069,7 +4047,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -4084,19 +4062,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -4106,10 +4084,10 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -4121,13 +4099,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -4145,7 +4123,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4166,21 +4144,21 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4203,20 +4181,18 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -4225,10 +4201,10 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4264,7 +4240,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4285,21 +4261,21 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4307,7 +4283,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -4322,17 +4298,15 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4345,7 +4319,7 @@
         <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -4447,7 +4421,9 @@
       <c r="M19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4496,7 +4472,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4517,21 +4493,21 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4554,18 +4530,18 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4613,7 +4589,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4631,16 +4607,16 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -4671,17 +4647,17 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4748,10 +4724,10 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4762,10 +4738,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4773,7 +4749,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4788,18 +4764,16 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4847,13 +4821,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4862,13 +4836,13 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4890,7 +4864,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4905,16 +4879,18 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4968,7 +4944,7 @@
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4977,13 +4953,13 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4994,10 +4970,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5008,7 +4984,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -5020,7 +4996,7 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>246</v>
@@ -5028,9 +5004,11 @@
       <c r="M24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -5079,13 +5057,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -5097,10 +5075,10 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5111,10 +5089,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5122,22 +5100,22 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>253</v>
@@ -5145,11 +5123,9 @@
       <c r="M25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5174,13 +5150,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -5198,13 +5174,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -5222,7 +5198,7 @@
         <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5230,10 +5206,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5241,7 +5217,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -5250,24 +5226,24 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
         <v>262</v>
       </c>
+      <c r="N26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5291,13 +5267,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5315,10 +5291,10 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>89</v>
@@ -5333,13 +5309,13 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5373,7 +5349,7 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>268</v>
@@ -5381,10 +5357,10 @@
       <c r="M27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5408,10 +5384,10 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -5453,7 +5429,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5464,10 +5440,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5475,7 +5451,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5490,18 +5466,18 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5525,14 +5501,14 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5549,10 +5525,10 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -5567,13 +5543,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5581,10 +5557,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5592,7 +5568,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -5604,72 +5580,74 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -5684,13 +5662,13 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5698,10 +5676,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5721,71 +5699,67 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5800,16 +5774,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5817,10 +5791,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5843,17 +5817,15 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5878,13 +5850,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5902,7 +5874,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5917,16 +5889,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5934,10 +5906,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5960,16 +5932,20 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -6017,7 +5993,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6038,10 +6014,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6049,14 +6025,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6075,19 +6051,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -6136,7 +6110,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6154,13 +6128,13 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6175,7 +6149,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6194,7 +6168,7 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>322</v>
@@ -6296,7 +6270,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -6311,18 +6285,16 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6388,13 +6360,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6402,10 +6374,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6425,16 +6397,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>156</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>338</v>
+        <v>157</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6485,7 +6457,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>158</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6497,19 +6469,19 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>159</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6517,21 +6489,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6543,15 +6515,17 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6588,31 +6562,31 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6621,7 +6595,7 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6632,21 +6606,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6655,19 +6629,19 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6705,54 +6679,54 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>172</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6760,7 +6734,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6775,22 +6749,24 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="R39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6834,7 +6810,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6843,13 +6819,13 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
@@ -6873,7 +6849,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6889,27 +6865,25 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N40" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="O40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q40" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6953,16 +6927,16 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI40" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6971,28 +6945,28 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7008,20 +6982,20 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -7070,7 +7044,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7079,7 +7053,7 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -7088,13 +7062,13 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM41" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -7102,14 +7076,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7128,17 +7102,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7187,7 +7161,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7196,7 +7170,7 @@
         <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>101</v>
@@ -7205,13 +7179,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7233,7 +7207,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7242,20 +7216,20 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7280,13 +7254,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7310,7 +7284,7 @@
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -7322,13 +7296,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7336,21 +7310,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7359,20 +7333,22 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7397,13 +7373,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7421,13 +7397,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -7439,13 +7415,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7453,14 +7429,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7487,11 +7463,9 @@
       <c r="M45" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7540,7 +7514,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7558,13 +7532,13 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7595,21 +7569,21 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7633,10 +7607,10 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7684,15 +7658,15 @@
         <v>410</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7715,10 +7689,10 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>413</v>
@@ -7750,10 +7724,10 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>78</v>
@@ -7774,7 +7748,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7792,24 +7766,24 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="AN47" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7820,7 +7794,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7832,17 +7806,15 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>314</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7891,13 +7863,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7909,24 +7881,24 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7949,13 +7921,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8006,7 +7978,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8024,28 +7996,28 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AM49" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8064,15 +8036,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -8121,7 +8095,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8160,14 +8134,14 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -8179,18 +8153,18 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8244,7 +8218,7 @@
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -8256,10 +8230,10 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8270,10 +8244,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8296,18 +8270,16 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>448</v>
+        <v>156</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>449</v>
+        <v>157</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>450</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8355,7 +8327,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>446</v>
+        <v>158</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8367,7 +8339,7 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8376,7 +8348,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>451</v>
+        <v>159</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8387,21 +8359,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8413,15 +8385,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8470,19 +8444,19 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8491,7 +8465,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8502,14 +8476,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8522,24 +8496,26 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8587,7 +8563,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8608,7 +8584,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8619,45 +8595,43 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>452</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>152</v>
+        <v>455</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8706,19 +8680,19 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -8727,7 +8701,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>132</v>
+        <v>456</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8738,10 +8712,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8764,17 +8738,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8823,7 +8799,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8844,7 +8820,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8855,10 +8831,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8869,7 +8845,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8881,20 +8857,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>213</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8942,13 +8914,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8963,7 +8935,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8974,14 +8946,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9000,16 +8972,18 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -9045,19 +9019,17 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9078,7 +9050,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -9089,21 +9061,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -9115,18 +9087,16 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>478</v>
+        <v>156</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>479</v>
+        <v>157</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>480</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9162,29 +9132,31 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>476</v>
+        <v>158</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -9193,7 +9165,7 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9204,21 +9176,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -9230,15 +9202,17 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9287,19 +9261,19 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9308,7 +9282,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9319,14 +9293,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9339,24 +9313,26 @@
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9404,7 +9380,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9425,7 +9401,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9436,45 +9412,45 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>152</v>
+        <v>483</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9499,10 +9475,10 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9523,19 +9499,19 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9544,7 +9520,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9555,14 +9531,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9581,20 +9557,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>184</v>
+        <v>486</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9618,10 +9590,10 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>78</v>
@@ -9642,7 +9614,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9663,7 +9635,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9674,18 +9646,20 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9700,16 +9674,18 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9757,13 +9733,13 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
@@ -9772,13 +9748,13 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9789,16 +9765,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9817,18 +9791,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>499</v>
+        <v>156</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>479</v>
+        <v>157</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>480</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9876,28 +9848,28 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>476</v>
+        <v>158</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9908,21 +9880,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9934,15 +9906,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9991,19 +9965,19 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -10012,7 +9986,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -10023,14 +9997,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10043,24 +10017,26 @@
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -10108,7 +10084,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10129,7 +10105,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -10140,45 +10116,45 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>152</v>
+        <v>483</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10188,7 +10164,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -10203,10 +10179,10 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
@@ -10227,19 +10203,19 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10248,7 +10224,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10259,14 +10235,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10285,20 +10261,16 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10307,7 +10279,7 @@
         <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>505</v>
+        <v>78</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>78</v>
@@ -10322,10 +10294,10 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>78</v>
@@ -10346,7 +10318,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>89</v>
@@ -10367,7 +10339,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10378,18 +10350,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="D70" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
@@ -10404,16 +10378,18 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>163</v>
+        <v>439</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10461,13 +10437,13 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10476,13 +10452,13 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10493,16 +10469,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10521,18 +10495,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>509</v>
+        <v>156</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>479</v>
+        <v>157</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>480</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10580,28 +10552,28 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>476</v>
+        <v>158</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10612,21 +10584,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10638,15 +10610,17 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10695,19 +10669,19 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10716,7 +10690,7 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10727,14 +10701,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10747,24 +10721,26 @@
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10812,7 +10788,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10833,7 +10809,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10844,45 +10820,45 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>152</v>
+        <v>483</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10892,7 +10868,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10907,10 +10883,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10931,19 +10907,19 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10952,7 +10928,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10963,14 +10939,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10989,20 +10965,16 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -11011,7 +10983,7 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>78</v>
@@ -11026,10 +10998,10 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -11050,7 +11022,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>89</v>
@@ -11071,7 +11043,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -11082,18 +11054,20 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="D76" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>89</v>
@@ -11108,16 +11082,18 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>163</v>
+        <v>439</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -11165,13 +11141,13 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
@@ -11180,13 +11156,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11197,23 +11173,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -11225,18 +11199,16 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>519</v>
+        <v>156</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>479</v>
+        <v>157</v>
       </c>
       <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>480</v>
-      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11284,28 +11256,28 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>476</v>
+        <v>158</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>520</v>
+        <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11316,21 +11288,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11342,15 +11314,17 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11399,19 +11373,19 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11420,7 +11394,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11431,14 +11405,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11451,24 +11425,26 @@
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11516,7 +11492,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11537,7 +11513,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11548,45 +11524,45 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>152</v>
+        <v>483</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11596,7 +11572,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11611,10 +11587,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11635,19 +11611,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11656,7 +11632,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11667,14 +11643,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11693,20 +11669,16 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11715,7 +11687,7 @@
         <v>78</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>525</v>
+        <v>78</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>78</v>
@@ -11730,10 +11702,10 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>78</v>
@@ -11754,7 +11726,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>89</v>
@@ -11775,7 +11747,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11786,21 +11758,23 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11812,16 +11786,18 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>163</v>
+        <v>439</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11869,13 +11845,13 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
@@ -11884,13 +11860,13 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>522</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11901,16 +11877,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11929,18 +11903,16 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>529</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>479</v>
+        <v>157</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>480</v>
-      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11988,28 +11960,28 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>476</v>
+        <v>158</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>528</v>
+        <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -12020,21 +11992,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -12046,15 +12018,17 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -12103,19 +12077,19 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -12124,7 +12098,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12135,14 +12109,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12155,24 +12129,26 @@
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -12220,7 +12196,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12241,7 +12217,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12252,45 +12228,45 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>152</v>
+        <v>483</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12300,7 +12276,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>78</v>
+        <v>527</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12315,10 +12291,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12339,19 +12315,19 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12360,7 +12336,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12371,14 +12347,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12397,20 +12373,16 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>184</v>
+        <v>529</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12419,7 +12391,7 @@
         <v>78</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>534</v>
+        <v>78</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>78</v>
@@ -12434,10 +12406,10 @@
         <v>78</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>78</v>
@@ -12458,7 +12430,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>89</v>
@@ -12479,7 +12451,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12490,18 +12462,20 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>89</v>
@@ -12516,16 +12490,18 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12573,13 +12549,13 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
@@ -12588,13 +12564,13 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>78</v>
+        <v>531</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12605,23 +12581,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12633,18 +12607,16 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>538</v>
+        <v>156</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>479</v>
+        <v>157</v>
       </c>
       <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>480</v>
-      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12692,28 +12664,28 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>476</v>
+        <v>158</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>537</v>
+        <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12724,21 +12696,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12750,15 +12722,17 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -12807,19 +12781,19 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12828,7 +12802,7 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12839,14 +12813,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12859,24 +12833,26 @@
         <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12924,7 +12900,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12945,7 +12921,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12956,45 +12932,45 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>152</v>
+        <v>483</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -13004,7 +12980,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>78</v>
+        <v>537</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -13019,10 +12995,10 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -13043,19 +13019,19 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -13064,7 +13040,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -13075,14 +13051,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13101,20 +13077,16 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
@@ -13123,7 +13095,7 @@
         <v>78</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>543</v>
+        <v>78</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>78</v>
@@ -13138,10 +13110,10 @@
         <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>78</v>
@@ -13162,7 +13134,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>89</v>
@@ -13183,7 +13155,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13194,21 +13166,23 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="D94" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -13220,16 +13194,18 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
@@ -13277,13 +13253,13 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
@@ -13292,13 +13268,13 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>78</v>
+        <v>540</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13309,10 +13285,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>546</v>
+        <v>475</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13335,13 +13311,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13392,7 +13368,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13413,7 +13389,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13424,14 +13400,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>548</v>
+        <v>476</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13450,16 +13426,16 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13497,19 +13473,19 @@
         <v>78</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13530,7 +13506,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13541,44 +13517,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>550</v>
+        <v>477</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>551</v>
+        <v>135</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>552</v>
+        <v>448</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>553</v>
+        <v>449</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13614,29 +13592,31 @@
         <v>78</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AC97" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>556</v>
+        <v>450</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -13645,31 +13625,29 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>557</v>
+        <v>132</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>78</v>
+        <v>479</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>89</v>
@@ -13681,21 +13659,23 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>560</v>
+        <v>177</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>553</v>
+        <v>481</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13704,7 +13684,7 @@
         <v>78</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>78</v>
+        <v>546</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>78</v>
@@ -13719,10 +13699,10 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
@@ -13743,10 +13723,10 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>556</v>
+        <v>478</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>89</v>
@@ -13758,27 +13738,27 @@
         <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>561</v>
+        <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13786,7 +13766,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>89</v>
@@ -13798,16 +13778,16 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>564</v>
+        <v>487</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>565</v>
+        <v>488</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13858,10 +13838,10 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>566</v>
+        <v>485</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>89</v>
@@ -13879,21 +13859,21 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13901,7 +13881,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>89</v>
@@ -13913,16 +13893,16 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>570</v>
+        <v>155</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>571</v>
+        <v>156</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>572</v>
+        <v>157</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13973,10 +13953,10 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>573</v>
+        <v>158</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>89</v>
@@ -13985,34 +13965,34 @@
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>574</v>
+        <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>575</v>
+        <v>159</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14031,18 +14011,18 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>447</v>
+        <v>135</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>577</v>
+        <v>136</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
       </c>
@@ -14078,17 +14058,19 @@
         <v>78</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AC101" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="AD101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>576</v>
+        <v>165</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14100,7 +14082,7 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -14109,7 +14091,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -14120,10 +14102,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14131,7 +14113,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>89</v>
@@ -14143,18 +14125,20 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>163</v>
+        <v>554</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>164</v>
+        <v>555</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14191,19 +14175,17 @@
         <v>78</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>78</v>
+        <v>559</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>166</v>
+        <v>560</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14215,7 +14197,7 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14224,32 +14206,34 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>167</v>
+        <v>561</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="D103" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -14258,19 +14242,19 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>134</v>
+        <v>564</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>169</v>
+        <v>555</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>170</v>
+        <v>556</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>151</v>
+        <v>557</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14320,78 +14304,74 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>172</v>
+        <v>560</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>78</v>
+        <v>565</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>167</v>
+        <v>561</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>456</v>
+        <v>568</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>78</v>
       </c>
@@ -14439,19 +14419,19 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>458</v>
+        <v>570</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
@@ -14460,25 +14440,25 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14494,21 +14474,19 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>184</v>
+        <v>574</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>586</v>
-      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14532,10 +14510,10 @@
         <v>78</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>587</v>
+        <v>78</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>78</v>
@@ -14556,7 +14534,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>89</v>
@@ -14571,27 +14549,27 @@
         <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>78</v>
+        <v>578</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>482</v>
+        <v>579</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14599,10 +14577,10 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -14614,17 +14592,17 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14661,25 +14639,23 @@
         <v>78</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
@@ -14694,7 +14670,7 @@
         <v>78</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14705,14 +14681,12 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
         <v>78</v>
       </c>
@@ -14733,18 +14707,16 @@
         <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>594</v>
+        <v>156</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>578</v>
+        <v>157</v>
       </c>
       <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>579</v>
-      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>78</v>
       </c>
@@ -14792,28 +14764,28 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>576</v>
+        <v>158</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>593</v>
+        <v>78</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
@@ -14824,21 +14796,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>78</v>
@@ -14850,15 +14822,17 @@
         <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -14907,19 +14881,19 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -14928,7 +14902,7 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -14939,14 +14913,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14959,24 +14933,26 @@
         <v>78</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>78</v>
       </c>
@@ -15024,7 +15000,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15045,7 +15021,7 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15056,45 +15032,43 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>456</v>
+        <v>588</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>152</v>
+        <v>590</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -15119,10 +15093,10 @@
         <v>78</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>78</v>
+        <v>591</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>78</v>
@@ -15143,19 +15117,19 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>458</v>
+        <v>587</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -15164,7 +15138,7 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15175,14 +15149,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15201,17 +15175,17 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>184</v>
+        <v>486</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15221,7 +15195,7 @@
         <v>78</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>599</v>
+        <v>78</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>78</v>
@@ -15236,10 +15210,10 @@
         <v>78</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>587</v>
+        <v>78</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>78</v>
@@ -15260,7 +15234,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>89</v>
@@ -15281,7 +15255,7 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>
@@ -15292,18 +15266,20 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="D112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>89</v>
@@ -15318,17 +15294,17 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
@@ -15377,13 +15353,13 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>78</v>
@@ -15392,13 +15368,13 @@
         <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>78</v>
+        <v>597</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>78</v>
@@ -15409,10 +15385,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15435,13 +15411,13 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15492,7 +15468,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15513,7 +15489,7 @@
         <v>78</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>78</v>
@@ -15524,14 +15500,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15550,16 +15526,16 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15597,19 +15573,19 @@
         <v>78</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC114" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AD114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15630,7 +15606,7 @@
         <v>78</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>78</v>
@@ -15641,44 +15617,46 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J115" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>607</v>
+        <v>135</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>552</v>
+        <v>448</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>553</v>
+        <v>449</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
       </c>
@@ -15714,29 +15692,31 @@
         <v>78</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AC115" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>608</v>
+        <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>556</v>
+        <v>450</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
@@ -15745,27 +15725,25 @@
         <v>78</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>557</v>
+        <v>132</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>78</v>
+        <v>479</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -15781,21 +15759,21 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>610</v>
+        <v>177</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O116" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>78</v>
       </c>
@@ -15804,7 +15782,7 @@
         <v>78</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>78</v>
+        <v>603</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>78</v>
@@ -15819,10 +15797,10 @@
         <v>78</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>78</v>
+        <v>591</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>78</v>
@@ -15843,10 +15821,10 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>89</v>
@@ -15864,21 +15842,21 @@
         <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15886,7 +15864,7 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>89</v>
@@ -15898,19 +15876,21 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
       </c>
@@ -15958,10 +15938,10 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>89</v>
@@ -15979,128 +15959,13 @@
         <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>567</v>
+        <v>474</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1790,7 +1790,7 @@
     <t>authorReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
 </t>
   </si>
   <si>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
